--- a/CategoryListForTest.xlsx
+++ b/CategoryListForTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingu/PycharmProjects/BachelorArbeit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BDB3EA-B36B-6D42-B6E6-F283D7B6B863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF64C88-806A-4849-A0C8-F401B94F1F96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11742,7 +11742,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -11755,7 +11755,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -11803,7 +11803,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -12106,10 +12106,10 @@
   <dimension ref="A1:B1952"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="29.5" customWidth="1"/>
